--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.492</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.584</v>
+        <v>15.297</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.137</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.485</v>
+        <v>13.216</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.843</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.19</v>
+        <v>6.542</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.91875290551307</v>
+        <v>10.95389450680124</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.03060988605731</v>
+        <v>8.540779608416468</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.77359546746164</v>
+        <v>15.59743238554492</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.2535833874751</v>
+        <v>1.859203548085151</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.46691241157161</v>
+        <v>13.72030759155313</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.64003278515285</v>
+        <v>15.79699818966075</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.31082056012748</v>
+        <v>2.592863866408646</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.96579899424056</v>
+        <v>21.50394803645504</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.41613747301131</v>
+        <v>25.95474118056756</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.26933058888304</v>
+        <v>7.682916342454444</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.9452872229034</v>
+        <v>12.31157959200413</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.0073472468786</v>
+        <v>15.15436959119772</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.74136917802011</v>
+        <v>18.81682318353803</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.29636189970248</v>
+        <v>11.26672281682934</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.44889324554549</v>
+        <v>22.00764505027224</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.14403048080509</v>
+        <v>18.18883277063331</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.39550514002384</v>
+        <v>26.74505412692447</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.26002560805836</v>
+        <v>33.40607881444748</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.15407817778399</v>
+        <v>6.28346436078645</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.54640821208763</v>
+        <v>14.94900027361076</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.86757599693023</v>
+        <v>18.35076883771995</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.44532363826693</v>
+        <v>-1.59513293972724</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.25823309470138</v>
+        <v>24.80362414587479</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.90626647594671</v>
+        <v>12.59409096276354</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.07226036254775</v>
+        <v>20.424330175816</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.81573657350795</v>
+        <v>22.41502207649345</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.33074284317013</v>
+        <v>1.466700916569504</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.60292357851571</v>
+        <v>25.39425206965364</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.77570288562212</v>
+        <v>25.4665571448928</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>19.44584440356375</v>
+        <v>3.94471834532602</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.15025955846951</v>
+        <v>35.0420227316651</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.60049449981408</v>
+        <v>34.61211127563594</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.42456294746874</v>
+        <v>35.59793733797294</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.12194456213514</v>
+        <v>39.23446975406273</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.18542793593107</v>
+        <v>40.67949684378819</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.82737110551864</v>
+        <v>24.77399540650766</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.45702527533189</v>
+        <v>36.61640602390482</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.60883944960833</v>
+        <v>40.20395058411304</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.13809435466855</v>
+        <v>15.31047918791225</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.44426920792961</v>
+        <v>39.05720532218905</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.30971154059814</v>
+        <v>47.0528655249704</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>14.23684937656373</v>
+        <v>9.534457287173648</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.68870873785615</v>
+        <v>35.15219894654261</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.01003014230461</v>
+        <v>43.12233069784129</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>33.4495283862251</v>
+        <v>52.47578812127456</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.18703856246389</v>
+        <v>6.940819812155606</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.35409050112615</v>
+        <v>15.41700301849587</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.09596853146106</v>
+        <v>19.66094455546776</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12.64029995363801</v>
+        <v>0.2732175800034504</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.91374426450944</v>
+        <v>23.88828473522876</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.08453838275221</v>
+        <v>26.25754175941313</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>19.76065914882437</v>
+        <v>3.23786345763995</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>31.4664495409063</v>
+        <v>35.19365477878034</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34.91516137117115</v>
+        <v>37.30658271557176</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.73183269629263</v>
+        <v>38.6153566227747</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.42792782867222</v>
+        <v>40.67250847552609</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>44.49028441692337</v>
+        <v>45.19293445090074</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21.12916385801032</v>
+        <v>14.45387783891601</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>38.76115941087772</v>
+        <v>29.03496739214441</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.91045818624102</v>
+        <v>34.92108102281843</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.41849593981624</v>
+        <v>10.00016235103179</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.72569445059571</v>
+        <v>32.94382190698235</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.58957465385303</v>
+        <v>45.9139844309969</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14.54598770910921</v>
+        <v>6.413373998531608</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.99906896745583</v>
+        <v>30.46070923061729</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.31843397340661</v>
+        <v>43.79290525207975</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.90093450041555</v>
+        <v>6.35813864987281</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.76519289836118</v>
+        <v>50.04712066398386</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>14.47598000154379</v>
+        <v>1.393246369925873</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>27.63642679282165</v>
+        <v>11.30345083426178</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.38432055655916</v>
+        <v>18.26861004486603</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>11.866539503391</v>
+        <v>1.091934590042822</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.13266828922527</v>
+        <v>25.29391045488313</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.31070984156524</v>
+        <v>30.9292842048768</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>18.96759057348455</v>
+        <v>1.971072753795429</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>30.66663793632154</v>
+        <v>34.13246077793909</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.12119053919827</v>
+        <v>38.57524408206167</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.95599350726225</v>
+        <v>30.20762094996163</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>40.65251837470747</v>
+        <v>32.84367663730427</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.71922666895583</v>
+        <v>39.22886615296974</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20.3685237448693</v>
+        <v>12.87560091498328</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>37.99008637212177</v>
+        <v>26.4360712096231</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43.1484953173908</v>
+        <v>38.90871643017849</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>16.70822266260169</v>
+        <v>8.705560386811765</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>30.00879146579067</v>
+        <v>30.44581129791898</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.87864168070413</v>
+        <v>44.92762513493004</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>13.77300747513998</v>
+        <v>7.600294647280332</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.21876001604198</v>
+        <v>28.61905392610286</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>32.54533931187422</v>
+        <v>43.57080008770278</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>21.10874306557095</v>
+        <v>3.502582651094297</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.96625729345682</v>
+        <v>44.32712960563684</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.82434606708187</v>
+        <v>34.77531458389761</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.58828456065674</v>
+        <v>25.82949142484163</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.43071236752709</v>
+        <v>44.84969747891682</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.6052781301592</v>
+        <v>53.30890138547628</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>22.13457109755867</v>
+        <v>10.42712016926823</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>39.98380275906925</v>
+        <v>25.62219674287247</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>45.28081639834951</v>
+        <v>32.43081440432741</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>23.13812712268911</v>
+        <v>14.67433093899062</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.9797946417673</v>
+        <v>20.21494332135181</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.83834243072527</v>
+        <v>34.69550266143362</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>20.67604365645319</v>
+        <v>0.07528147136673269</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>35.73085420405852</v>
+        <v>10.08455880557181</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>40.05367415800388</v>
+        <v>17.51664325361885</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.66146296351265</v>
+        <v>-3.591347821302225</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>41.03158595907554</v>
+        <v>23.22155846193389</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.60112895611827</v>
+        <v>42.22449494095572</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.67992122154573</v>
+        <v>25.16489410787171</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>51.92258402616525</v>
+        <v>47.02128693582803</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>55.05954935525217</v>
+        <v>59.32661573685532</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.52658442200178</v>
+        <v>2.763391447564867</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>49.21848807585474</v>
+        <v>22.54931900146518</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>54.50776732465987</v>
+        <v>33.63605833073909</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>37.01593701345269</v>
+        <v>64.52796564164129</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.74881841818917</v>
+        <v>56.40508762880708</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43.61299612908127</v>
+        <v>70.16422111161992</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>46.78937579727924</v>
+        <v>78.05531678157006</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>23.22650568694078</v>
+        <v>23.12684294343061</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>41.15138873178388</v>
+        <v>68.20825799488087</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.44826098982111</v>
+        <v>70.44402985577941</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.16795976269321</v>
+        <v>17.64674467034311</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.06486555841422</v>
+        <v>43.4018342308852</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.92396520183922</v>
+        <v>52.02064233345418</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21.79704041621157</v>
+        <v>8.951559937988517</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.91187680613477</v>
+        <v>42.39565321286146</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.23453681798072</v>
+        <v>48.71942969038467</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.84300229361688</v>
+        <v>10.8572966484748</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42.26355030152146</v>
+        <v>60.88721967551201</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.83316746915413</v>
+        <v>73.76832614028713</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>45.88184098386596</v>
+        <v>76.80385042267771</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>53.14631137128033</v>
+        <v>88.70087729988965</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>56.28449674696821</v>
+        <v>97.03879767647477</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.65929079121302</v>
+        <v>27.55756739813888</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>50.42746608266675</v>
+        <v>81.15959355840302</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>55.71620436608712</v>
+        <v>84.21683472725105</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>37.33010973518246</v>
+        <v>67.48075592346886</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.05500234650482</v>
+        <v>49.25158316575661</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>43.91780281871722</v>
+        <v>59.94546337678803</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>47.0930917847035</v>
+        <v>74.02994638688367</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.5274915420782</v>
+        <v>13.15359944697573</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>41.45462618864453</v>
+        <v>62.20841763815267</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.4550734782659</v>
+        <v>11.51792142863574</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>38.35269049835069</v>
+        <v>39.48336553506823</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.21006707951348</v>
+        <v>51.68373424339808</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.11320349376545</v>
+        <v>6.223880724230394</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.22888650400932</v>
+        <v>40.97654727635243</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.5494309014144</v>
+        <v>51.59656381036548</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.16438915485389</v>
+        <v>9.32896666789463</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.58595268180967</v>
+        <v>61.89486471679787</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>46.15395045402541</v>
+        <v>78.51060596061633</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>46.19444174619484</v>
+        <v>75.09172310145466</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>53.45719166600712</v>
+        <v>85.17821500380963</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>56.59405295440806</v>
+        <v>98.93190250631626</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>31.96704381436678</v>
+        <v>17.52344117889468</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>50.73698540078887</v>
+        <v>78.40962518178985</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>56.0230805692099</v>
+        <v>85.33851362958917</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>36.53697847587635</v>
+        <v>62.80776096087213</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.28111427105974</v>
+        <v>32.76857688006938</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>43.1445044512633</v>
+        <v>44.11088759745392</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>46.32410407392931</v>
+        <v>61.77326087816232</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>22.76843976292879</v>
+        <v>11.49755924341944</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>40.68518205521596</v>
+        <v>54.24172320257154</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>45.98861565312136</v>
+        <v>64.98025008693004</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>23.73378837374928</v>
+        <v>9.736577772881812</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>37.62554501403974</v>
+        <v>37.3258056354633</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>41.48913957606089</v>
+        <v>54.62615608126059</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21.32864429466346</v>
+        <v>7.433400323183772</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.43792479334924</v>
+        <v>37.63052055618972</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>40.76591356831383</v>
+        <v>53.36842104427747</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.36064488163947</v>
+        <v>5.112427749275636</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>41.7762482853719</v>
+        <v>55.77156766168103</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>45.35022232030971</v>
+        <v>77.46819484268791</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.4101377167206</v>
+        <v>60.80101911867312</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>52.6742118414669</v>
+        <v>75.40964193792563</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.81573450250906</v>
+        <v>95.84400878064831</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>31.1967027420797</v>
+        <v>14.31668583662592</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.95744044144931</v>
+        <v>70.76208062247402</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>55.25281822685047</v>
+        <v>84.47382159337833</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-3.170508263632868</v>
+        <v>15.79643632107245</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10.51581507271379</v>
+        <v>50.54173814660959</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.03612183979858</v>
+        <v>62.38378866942173</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-6.067206178316184</v>
+        <v>9.438556962985242</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>8.791673877364659</v>
+        <v>55.36833248707664</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>12.6949539932352</v>
+        <v>60.59776099577911</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.5458677980769266</v>
+        <v>24.91504203871341</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.74869393591438</v>
+        <v>84.65424692974211</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>15.96769700811262</v>
+        <v>93.91395571054144</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>17.07438724076695</v>
+        <v>56.24178893540244</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.93868103218986</v>
+        <v>64.48496032344217</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.85811391357706</v>
+        <v>67.18258613819</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>3.345157196285754</v>
+        <v>23.97700448667358</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.69506759332211</v>
+        <v>45.34809259221274</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.54365717498099</v>
+        <v>60.92392848409871</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-1.58667229753442</v>
+        <v>10.4384735655264</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>12.20612623073971</v>
+        <v>38.48470184620237</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.83778125459803</v>
+        <v>38.98601129360209</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-4.830107326384606</v>
+        <v>-7.151453538720606</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>10.17128635604232</v>
+        <v>21.05987845296925</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.21092462582438</v>
+        <v>19.88089623167106</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1.975555726471825</v>
+        <v>-3.4883401808457</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.30466530608101</v>
+        <v>45.80530752000821</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-2.226874371387822</v>
+        <v>21.79990119692885</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>11.5137940284618</v>
+        <v>67.01956788916452</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15.03398397826933</v>
+        <v>70.12668870501959</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-5.035279034645882</v>
+        <v>16.30590744311617</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>9.882643987197952</v>
+        <v>74.61448569461956</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>13.78491970917699</v>
+        <v>73.96900887932877</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1.633974062617767</v>
+        <v>30.52643168180063</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13.88643648657913</v>
+        <v>102.6818582630157</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17.10476434267223</v>
+        <v>103.1418910374006</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>18.18603025092123</v>
+        <v>94.70748814374666</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.07187691274833</v>
+        <v>102.0437830134914</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.99245180923402</v>
+        <v>99.39123239644884</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>4.387969720919941</v>
+        <v>36.39472170528104</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.81284481520093</v>
+        <v>76.04071452054616</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.65996974393768</v>
+        <v>82.0892370378476</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-0.6381676638493161</v>
+        <v>11.98064918991045</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>13.20943912541536</v>
+        <v>54.74496602478921</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16.84140172730544</v>
+        <v>52.11024462470573</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-3.794387465131848</v>
+        <v>0.3501872095617067</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>11.26661618826132</v>
+        <v>45.55491945415365</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>15.30574183850899</v>
+        <v>43.50488032271784</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>3.068035126823489</v>
+        <v>7.116159468426812</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>15.44726573750481</v>
+        <v>73.71481987239035</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-1.93752423843344</v>
+        <v>11.86931521642616</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>11.8036901858823</v>
+        <v>56.66488507166864</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15.32225951263619</v>
+        <v>61.08426317781901</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-4.717019662145887</v>
+        <v>13.20572608157859</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.20156961653571</v>
+        <v>70.59757292735682</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>14.1018648636004</v>
+        <v>71.10533287592763</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1.957531314981296</v>
+        <v>26.51765339600554</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>14.21087462787804</v>
+        <v>98.30093169478054</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>17.4276841889013</v>
+        <v>100.3736644134493</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>18.50115076563649</v>
+        <v>97.69901900090112</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.3855761640536</v>
+        <v>103.759039085702</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.30501459188952</v>
+        <v>102.6625317979636</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>4.697826376820146</v>
+        <v>23.40139329269632</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>23.12432811773583</v>
+        <v>65.49792122252489</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>27.96892447453218</v>
+        <v>72.15815254034531</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-0.3488449823581874</v>
+        <v>5.337147357473629</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>13.49928603382233</v>
+        <v>46.85919899018383</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>17.1296658727108</v>
+        <v>48.01443276823352</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-3.476215826463758</v>
+        <v>-2.721203560583074</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>11.5854256390451</v>
+        <v>40.97577906926527</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>15.62260348112771</v>
+        <v>42.61042489080015</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>3.39147344629734</v>
+        <v>4.116785843961136</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>15.77155393486139</v>
+        <v>69.50585879878987</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-2.658220056323088</v>
+        <v>4.124625301292628</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>11.07741764174966</v>
+        <v>50.94573560478567</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>14.60198150120525</v>
+        <v>60.75619943067682</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-5.500183105286368</v>
+        <v>12.68636530913869</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>9.412277443062678</v>
+        <v>71.99532939864412</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>13.31974253738117</v>
+        <v>77.70842011750584</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1.155166661416374</v>
+        <v>24.55968552889039</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>13.40274934514108</v>
+        <v>96.89700456688198</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.62533399808378</v>
+        <v>104.3796422535391</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>17.71725620296962</v>
+        <v>88.02804219279668</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.60240373982072</v>
+        <v>95.94601055998183</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.52612753107006</v>
+        <v>98.5425154804702</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>3.928533240641841</v>
+        <v>18.41464398756382</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>22.34602037668408</v>
+        <v>63.28129115031273</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>27.199653522293</v>
+        <v>75.89601175501213</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-1.069119735244016</v>
+        <v>0.6929073294596328</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>12.77340019294223</v>
+        <v>42.17671729005615</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>16.4097162656525</v>
+        <v>47.56232323069123</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-4.258924038798838</v>
+        <v>-2.216276903729781</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>10.79656515549723</v>
+        <v>40.10147639087394</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>14.84086209673904</v>
+        <v>45.4983674152142</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>2.589610430506411</v>
+        <v>1.889864400554881</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>14.963919673778</v>
+        <v>65.37935320187192</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>17.63030935200486</v>
+        <v>48.38687011045427</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.70880812506341</v>
+        <v>34.96045646766188</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.71467934939177</v>
+        <v>51.17450923141767</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.73034539052736</v>
+        <v>54.37518697081606</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>5.110204483551954</v>
+        <v>6.030667484701137</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>23.7062220558219</v>
+        <v>34.69309868584094</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.68688435808279</v>
+        <v>41.5159974163125</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>5.879333117764844</v>
+        <v>10.55321715367679</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.21659283950493</v>
+        <v>33.26960723778171</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>23.84040525422819</v>
+        <v>42.20529444068683</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>3.132379523827353</v>
+        <v>-4.185964872695497</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>18.74397091808627</v>
+        <v>21.50900555596207</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.78244707544955</v>
+        <v>24.85799382464479</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.65380184868211</v>
+        <v>-0.1842027793722458</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>23.49830060295167</v>
+        <v>47.39909424734448</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>26.82373908014404</v>
+        <v>59.44720099686957</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.15855113011515</v>
+        <v>43.14293206206001</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.53616927562438</v>
+        <v>57.72291636704027</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>38.53299056582843</v>
+        <v>63.10746785818726</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>13.89863452564767</v>
+        <v>4.490130736131544</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>33.2752884019779</v>
+        <v>37.24391587997484</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>38.24409148959485</v>
+        <v>48.87442995674157</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>18.77262990690613</v>
+        <v>73.72510810114058</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>19.82393186284002</v>
+        <v>71.29271085022633</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.85163326039729</v>
+        <v>83.68826131084673</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.86880593502968</v>
+        <v>82.25326947139746</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>6.157246398310861</v>
+        <v>21.85870325637228</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>24.82907022457191</v>
+        <v>78.55774666486064</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.80883837430899</v>
+        <v>76.99232779430244</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>6.86239886365</v>
+        <v>9.236086747481945</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21.25497247549075</v>
+        <v>51.85407449206814</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.87868565406805</v>
+        <v>49.47977790866594</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>4.205005442856077</v>
+        <v>0.7352157545405156</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>19.87666639045732</v>
+        <v>49.9632681734322</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.91426704552982</v>
+        <v>45.9777003706913</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>11.78513449299437</v>
+        <v>6.345451893011937</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.68013321975639</v>
+        <v>76.75347239914457</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.00503054885886</v>
+        <v>77.0219097029845</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.31355383384512</v>
+        <v>88.88777899138636</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>36.71300507768584</v>
+        <v>94.98497021047204</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>39.71075646093612</v>
+        <v>92.40161265069925</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>14.98498908748586</v>
+        <v>23.96194676523838</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>34.43802860594389</v>
+        <v>88.21845660434941</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.40548249029165</v>
+        <v>86.97868852416163</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>19.09543326069684</v>
+        <v>73.75740847624665</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>20.13832350841952</v>
+        <v>66.32862961606492</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.16452700616602</v>
+        <v>76.63047269460958</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.18060535015444</v>
+        <v>79.67255990728569</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>6.466621930746157</v>
+        <v>11.39115626280389</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.13999894051845</v>
+        <v>72.57707757799149</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>30.1173044170872</v>
+        <v>72.60622164558615</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>7.157453031695397</v>
+        <v>0.7370891236149895</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>21.5502751977745</v>
+        <v>45.32330419043575</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.17224118772142</v>
+        <v>44.62985180759162</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>4.529203603920934</v>
+        <v>-2.848347073274756</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>20.20117005570851</v>
+        <v>48.00418967437869</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.23665685149226</v>
+        <v>45.96202767868222</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>12.11457653105263</v>
+        <v>2.900566749031011</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.01014250055431</v>
+        <v>75.40490395390724</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.33342375098024</v>
+        <v>77.54185887492118</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.63338954250537</v>
+        <v>88.14203657659782</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>37.03100949962666</v>
+        <v>93.17455797047641</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>40.02742841068469</v>
+        <v>94.25034972399386</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>15.30014209185217</v>
+        <v>12.52769859706079</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>34.75430251491908</v>
+        <v>85.07649043461332</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>39.71909775099609</v>
+        <v>85.02459415675803</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>18.29352508963422</v>
+        <v>73.80613601298339</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>19.35601181868266</v>
+        <v>49.79764941500167</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.38307252776223</v>
+        <v>62.03152010252921</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.40338054779574</v>
+        <v>69.41475329775439</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>5.698595272864992</v>
+        <v>7.449981577590915</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>24.36298645116954</v>
+        <v>66.94960722536626</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.34921499740747</v>
+        <v>72.31196216735633</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>6.428018608974256</v>
+        <v>-2.080572093929948</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>20.81592642210184</v>
+        <v>44.01414524360457</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.44409569849149</v>
+        <v>50.45629368521419</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>3.736784710463212</v>
+        <v>0.561729907000224</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>19.40344130173095</v>
+        <v>49.4411430542112</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>23.44630316013006</v>
+        <v>53.8273119191487</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>11.30313262094356</v>
+        <v>2.196624913279418</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>24.19364446135752</v>
+        <v>74.4546395594998</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.52284164129634</v>
+        <v>84.10402431517342</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.84248064620844</v>
+        <v>79.35760497003896</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>36.24167273418362</v>
+        <v>89.36166175243223</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>39.24269490531015</v>
+        <v>97.37616473142911</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>14.52268735075378</v>
+        <v>9.254327242865553</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>33.96894931225899</v>
+        <v>83.50459564726553</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>38.94296321079008</v>
+        <v>90.18351612104293</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-24.70176692907137</v>
+        <v>15.48700945840419</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-11.67301722016889</v>
+        <v>12.99683455039618</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-7.896407659517692</v>
+        <v>19.71863692455731</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-28.5362745273876</v>
+        <v>1.035348504149784</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-14.40781838860858</v>
+        <v>13.28725076066052</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-10.20850759853538</v>
+        <v>15.28275052880154</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-23.0884556754939</v>
+        <v>6.532833113214682</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-11.50321959887887</v>
+        <v>24.17836772151939</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-8.027295557578768</v>
+        <v>28.49003689389745</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-5.890124770794515</v>
+        <v>12.87424127258046</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.7338744193287425</v>
+        <v>18.52644802022409</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>3.82619535004136</v>
+        <v>21.01452595405994</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-18.39702757368636</v>
+        <v>22.28142178258122</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-0.9397064719220367</v>
+        <v>19.26927708953979</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>4.269842845039619</v>
+        <v>31.1097156190447</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-22.72827546937305</v>
+        <v>16.68082934971187</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-9.567396602485289</v>
+        <v>19.16845296087019</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-5.670425876764995</v>
+        <v>27.30823930343282</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-26.9075398187445</v>
+        <v>0.7764497294814099</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-12.60783348163687</v>
+        <v>5.468197789369949</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-8.261438772732092</v>
+        <v>10.31474564242339</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-21.24346057597947</v>
+        <v>-4.43427593891629</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-9.507100546483002</v>
+        <v>14.37330906218882</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-23.772168168542</v>
+        <v>15.75309986366259</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-10.68956371676774</v>
+        <v>23.25051495727866</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-6.912310107744247</v>
+        <v>26.31526636513591</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-27.51893441607589</v>
+        <v>0.9314312639879496</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-13.3319169116026</v>
+        <v>24.94192180674852</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-9.132779511428168</v>
+        <v>26.28469550326096</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-22.01554982193986</v>
+        <v>7.823477415219617</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-10.38113123787346</v>
+        <v>37.37600399222075</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-6.905166277451997</v>
+        <v>38.24092401347451</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-4.79375070497359</v>
+        <v>40.19303706105191</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1.851540366119181</v>
+        <v>45.74777465293737</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>4.94536000584263</v>
+        <v>47.08598165094303</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-17.36823522480009</v>
+        <v>28.1290451881686</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0.1633621579514397</v>
+        <v>45.21604342043162</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>5.372449196049985</v>
+        <v>50.60731624997398</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-21.79251159380142</v>
+        <v>13.27812966547543</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>-8.577230426939892</v>
+        <v>30.28029386835315</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-4.679183572923975</v>
+        <v>41.73891781540631</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-25.88502195374791</v>
+        <v>4.223972573006119</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-11.52609428028427</v>
+        <v>25.16776126952585</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-7.179374852425767</v>
+        <v>36.41578515183653</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-20.16474773644988</v>
+        <v>5.680447009193426</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-8.37864031767721</v>
+        <v>41.6548599147381</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-23.46609796736595</v>
+        <v>8.969714459535442</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-10.38244105761621</v>
+        <v>16.49472339100737</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-6.606785994347391</v>
+        <v>22.13075905417321</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-27.18332134248119</v>
+        <v>-1.328162782730988</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-12.9950507516363</v>
+        <v>21.73546896857222</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-8.797889245821764</v>
+        <v>25.72297907206982</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-21.67360222869928</v>
+        <v>5.5661697699197</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-10.0378222153504</v>
+        <v>35.36613887069791</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-6.563374914649856</v>
+        <v>39.09657722702957</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-4.460853752944374</v>
+        <v>41.06973126342209</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>2.183166003245816</v>
+        <v>45.05767673764927</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>5.275839335667484</v>
+        <v>49.52201940708257</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-17.04143128663935</v>
+        <v>16.11155839583193</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0.4924801811341837</v>
+        <v>35.25720169339455</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>5.699052782173283</v>
+        <v>43.04283405389111</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-21.48662420765555</v>
+        <v>6.980182585312416</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-8.270321312148525</v>
+        <v>22.34059944572237</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-4.373836176946583</v>
+        <v>39.41300236861579</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-25.5496318973144</v>
+        <v>-0.07144197856266388</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-11.18948942094592</v>
+        <v>18.45477140783636</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-6.844715917698721</v>
+        <v>35.66526635900412</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-19.82307091676405</v>
+        <v>2.359591666337263</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-8.035641817713611</v>
+        <v>36.90700743284357</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-24.22147327749337</v>
+        <v>2.968455729796371</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-11.14440378259961</v>
+        <v>11.09337084528165</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-7.362756542420186</v>
+        <v>18.69010209992302</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-28.00265661288874</v>
+        <v>-2.077597452388087</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-13.82167931783374</v>
+        <v>20.8245471540099</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-9.617317559992671</v>
+        <v>27.2065371409315</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-22.51416426388278</v>
+        <v>2.442376744771611</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-10.88509834274599</v>
+        <v>31.60348506890291</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-7.404844855091142</v>
+        <v>36.95201954274656</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-5.281545773850297</v>
+        <v>30.83908471620435</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>1.362884628057444</v>
+        <v>34.29828405695255</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>4.459925626530534</v>
+        <v>40.17188255533082</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-17.84584058894986</v>
+        <v>12.48290072295553</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-0.3223017992995949</v>
+        <v>29.23061566385772</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>4.893342560860034</v>
+        <v>42.75174864961939</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-22.24151947281591</v>
+        <v>5.683676783384737</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-9.031834355434455</v>
+        <v>19.02061972980097</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-5.12940519076794</v>
+        <v>36.64646401654102</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-26.36850448818593</v>
+        <v>0.8723545038448712</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-12.01567362312692</v>
+        <v>15.69518736788659</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-7.663736565955148</v>
+        <v>33.46005534496264</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-20.66310222523781</v>
+        <v>-1.007489911928008</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-8.882393189662494</v>
+        <v>29.84661419178824</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-5.916429953670587</v>
+        <v>25.9978709571386</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-3.866534323669896</v>
+        <v>16.87501172790217</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>2.916737610102729</v>
+        <v>34.37401471561847</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>6.122875324390307</v>
+        <v>42.28061766357717</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-16.29724676494773</v>
+        <v>3.968495838863728</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>1.442805494027226</v>
+        <v>13.80868886102803</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.794017165811184</v>
+        <v>23.18827446568723</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-14.5173287258919</v>
+        <v>16.78402700413286</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-0.7870990390658932</v>
+        <v>17.70643795430064</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>3.090107542366937</v>
+        <v>29.96934915226539</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-18.14162730538936</v>
+        <v>-2.673706871267701</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-3.20246787843331</v>
+        <v>4.136653273630682</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1.129471576303118</v>
+        <v>10.26151890566593</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-11.72667926418347</v>
+        <v>-2.573199355922387</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>0.5482479105265554</v>
+        <v>18.597649242863</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>4.12888111508245</v>
+        <v>35.18362573997605</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>6.431758811760815</v>
+        <v>20.58894897753647</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>13.6043627107933</v>
+        <v>39.06345062028406</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>16.76371635977709</v>
+        <v>50.635511263943</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-6.707397293694768</v>
+        <v>4.128177838200866</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>11.84581305138057</v>
+        <v>16.54690141428021</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>17.16943634189022</v>
+        <v>28.48533555666794</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-4.787527695893928</v>
+        <v>57.40083580151939</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-2.765314785368318</v>
+        <v>46.13058334549287</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>4.039575167581575</v>
+        <v>59.97402405359729</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>7.247599125003703</v>
+        <v>67.76765595283641</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-15.26298169540053</v>
+        <v>16.55208022363886</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>2.552313974462677</v>
+        <v>56.39047203115885</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>7.903638214269151</v>
+        <v>62.38515824520904</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-13.54387341318211</v>
+        <v>20.02589126545675</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>0.2412666833645147</v>
+        <v>40.33457209827304</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>4.119150668339998</v>
+        <v>48.8833749149281</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-17.07892235720782</v>
+        <v>6.739778157188109</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-2.080073906266662</v>
+        <v>35.99515374849437</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>2.251841882504252</v>
+        <v>43.20978454511236</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-10.605665456872</v>
+        <v>12.98187247357788</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1.719393593728697</v>
+        <v>56.57200254674213</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>5.300217629849016</v>
+        <v>69.18019445053299</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>7.576242319242624</v>
+        <v>72.05966715929544</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>14.77050137905447</v>
+        <v>81.71178778971209</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>17.93115485085586</v>
+        <v>89.95885451963089</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-5.630537366637427</v>
+        <v>30.06896768027384</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.99849904678906</v>
+        <v>75.40961888388112</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>18.32179064560857</v>
+        <v>80.91003447259256</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-4.446014534882906</v>
+        <v>58.69333296010579</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-2.433291078923105</v>
+        <v>36.9207862307632</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>4.370245260572347</v>
+        <v>47.85478100945741</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>7.577157765823557</v>
+        <v>62.00891965304866</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-14.93677386960701</v>
+        <v>5.047640639023395</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>2.880751938594955</v>
+        <v>47.99230125468335</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>8.229627126102628</v>
+        <v>57.95826352385698</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-13.23202955540006</v>
+        <v>12.70736223519021</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>0.5538342582584619</v>
+        <v>34.57383100455185</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>4.430003311778421</v>
+        <v>47.44674338516151</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-16.73727417699331</v>
+        <v>2.490132683887904</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-1.737569105610788</v>
+        <v>32.39309691838633</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>2.59225014587328</v>
+        <v>44.60131202672018</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-10.25773933654685</v>
+        <v>9.736857320531779</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>2.068338127125344</v>
+        <v>55.21435236323627</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.647556249633084</v>
+        <v>72.31662201328369</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>7.91393541882637</v>
+        <v>68.20761634724532</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>15.10650246923163</v>
+        <v>76.17509284119696</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>18.26582479795485</v>
+        <v>90.17034669522469</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-5.298316845599928</v>
+        <v>18.12124325179631</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>13.33248678740138</v>
+        <v>70.06901096685492</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>18.65314807274739</v>
+        <v>80.04107903122916</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-5.286999009525829</v>
+        <v>51.7526533220534</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-3.252383107942919</v>
+        <v>20.89007955110672</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>3.551707670381802</v>
+        <v>30.74235669705582</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>6.76295119744195</v>
+        <v>47.72456596270641</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-15.73994031090616</v>
+        <v>2.851980527586743</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>2.067243757892172</v>
+        <v>38.03827673568239</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.425089093374666</v>
+        <v>52.2919802383238</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-13.99660328106594</v>
+        <v>9.644603509005247</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-0.2166126366977466</v>
+        <v>30.96847687404282</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>3.665737167394951</v>
+        <v>47.83201925751113</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-17.56636238569681</v>
+        <v>2.456488188514722</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-2.57307266311166</v>
+        <v>27.9276825312276</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.764127867937816</v>
+        <v>43.80211463514318</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-11.10789196198623</v>
+        <v>3.740453932375711</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1.212225657942923</v>
+        <v>47.07901296210433</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.797372665413675</v>
+        <v>68.23537229856846</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>7.085762293727257</v>
+        <v>53.11906786494954</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>14.27960907420983</v>
+        <v>64.25161574899887</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>17.44358819829593</v>
+        <v>84.22390744601957</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-6.111422066344218</v>
+        <v>12.64534290862259</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>12.51019015979171</v>
+        <v>60.21983581410809</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>17.84007709447256</v>
+        <v>75.98421939175292</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>15.24623258655815</v>
+        <v>13.32840231089223</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.98150225820504</v>
+        <v>9.941480388446205</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>31.63100424816678</v>
+        <v>16.28533095203646</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.65104390755674</v>
+        <v>-2.427613162188084</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.45525060225586</v>
+        <v>7.610274231655456</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>30.51270345454672</v>
+        <v>9.17179404505023</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.54027991222718</v>
+        <v>2.494685256271179</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.85791918162882</v>
+        <v>18.17614406322518</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>34.21340657939858</v>
+        <v>22.33770275816057</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>34.13197697763142</v>
+        <v>8.647508649075288</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>40.59604668268041</v>
+        <v>14.77459769967448</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>43.59873604123531</v>
+        <v>16.82291148941603</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.96729771627197</v>
+        <v>11.89570221460073</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>38.00994222525961</v>
+        <v>8.435902639267635</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>43.04125480276516</v>
+        <v>18.00600243672505</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.00506091435603</v>
+        <v>18.9935342963157</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.87170945830343</v>
+        <v>24.22404405275115</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>33.64095837443491</v>
+        <v>32.0335659950196</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.07715261416357</v>
+        <v>1.032100052339768</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.05102614017912</v>
+        <v>8.331022775866739</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>32.2549342238762</v>
+        <v>13.50140601651786</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.17184836590609</v>
+        <v>-0.7340050527223987</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>32.63905186313759</v>
+        <v>20.15384435919395</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.20894236593755</v>
+        <v>12.36021903623029</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.99690614984377</v>
+        <v>18.04122302142911</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>32.64702983502624</v>
+        <v>20.99867683201958</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>13.7015079073231</v>
+        <v>-3.2341048961386</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.56296901006484</v>
+        <v>17.50530789865077</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>31.62025607113892</v>
+        <v>18.66048403802146</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.64709142370253</v>
+        <v>2.421545130512175</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.012834606851</v>
+        <v>28.99153947854921</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.36836188029319</v>
+        <v>29.88180526086118</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>35.25872431550722</v>
+        <v>32.47324717849435</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>41.74362204792578</v>
+        <v>38.4066288025097</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>44.74784540557577</v>
+        <v>39.26061247864713</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>22.02671350728397</v>
+        <v>15.5777130109072</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.14200171378749</v>
+        <v>30.14471310140238</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>44.17286891117428</v>
+        <v>34.16934537286942</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>17.97327347832181</v>
+        <v>15.49761988839517</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.89314151670863</v>
+        <v>34.37823019688705</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.66344258220384</v>
+        <v>45.27927823715582</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>15.13214690404018</v>
+        <v>4.389972151226541</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.16390876008312</v>
+        <v>27.02827132541419</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>33.36814874969868</v>
+        <v>38.24639321894729</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>22.28379243410908</v>
+        <v>8.513944118567135</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.79964280801588</v>
+        <v>45.54366585769496</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.48240984395869</v>
+        <v>5.701810935308121</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.27143113371318</v>
+        <v>11.07074094641215</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>32.92002106160908</v>
+        <v>16.6522479192325</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.00319622226795</v>
+        <v>-5.417502041140441</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.86590706982103</v>
+        <v>14.15499297496872</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>31.9212990603891</v>
+        <v>17.99210295867264</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.95382835861913</v>
+        <v>0.1834048425814991</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>32.32093101673819</v>
+        <v>26.62736235496615</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.67500662595716</v>
+        <v>30.41787600558876</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.55817632213834</v>
+        <v>33.09525804922791</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>42.04184619815166</v>
+        <v>37.58743357020256</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.04498259459415</v>
+        <v>41.39954189391194</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.32085151685166</v>
+        <v>4.146561430078275</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>39.43845673898713</v>
+        <v>20.34049564378591</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>44.46691012300175</v>
+        <v>26.73445091260997</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>18.24661275817132</v>
+        <v>9.462828839483695</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.16750297468862</v>
+        <v>26.55812600862788</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>34.93630537072691</v>
+        <v>42.99139335689119</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.43366269350187</v>
+        <v>0.5147102223258564</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.46663106279557</v>
+        <v>20.71250775051982</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.6690044627998</v>
+        <v>37.72754755264933</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.59031405433285</v>
+        <v>5.515715119404401</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.10748033971102</v>
+        <v>40.93358869132905</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>15.78916792464172</v>
+        <v>1.055857747275045</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.5717005509844</v>
+        <v>7.048403048580884</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.22608053815112</v>
+        <v>14.69580996986334</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>13.24857984822825</v>
+        <v>-5.59833843385714</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.10412255226942</v>
+        <v>14.0401212612338</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>31.16646991647686</v>
+        <v>20.05435718034992</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>20.18048266639074</v>
+        <v>-1.800765920350191</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.54097385232672</v>
+        <v>24.04671329932853</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.90065246139911</v>
+        <v>29.6922759843961</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.8014796042707</v>
+        <v>24.9320923354511</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.28551616379447</v>
+        <v>29.27896112090209</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>44.29284621761659</v>
+        <v>34.31082583388887</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>21.57891345069171</v>
+        <v>1.867624961743257</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.68628439528755</v>
+        <v>16.61792595150935</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>43.72349903534965</v>
+        <v>27.78928150600171</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.55380378900254</v>
+        <v>8.467727527678559</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.46818647454734</v>
+        <v>23.56938930388692</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>34.24273219149912</v>
+        <v>40.72077707152701</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>14.67947432214805</v>
+        <v>1.643716914344008</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.70526837807722</v>
+        <v>18.38014223425033</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.91456130902159</v>
+        <v>35.80677999789957</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.81745824876182</v>
+        <v>2.818812334628557</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.32801681483863</v>
+        <v>34.62338585992669</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.10908337790978</v>
+        <v>30.99958739534898</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.96161250181184</v>
+        <v>23.90712130882997</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>42.58099940479384</v>
+        <v>42.52531600765444</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>45.69337762809543</v>
+        <v>49.17111766974887</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.88215240302813</v>
+        <v>7.799744979391615</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>40.20426259930526</v>
+        <v>20.72207209797581</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>45.37848561365532</v>
+        <v>30.02428331474205</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>24.27135214624961</v>
+        <v>17.6954713470083</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>37.69929568725922</v>
+        <v>21.00518336874121</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.45718023291413</v>
+        <v>33.39737488331544</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>21.8376308679717</v>
+        <v>-3.992954432132354</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>36.44230129710994</v>
+        <v>4.812487739128184</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>40.64109002617339</v>
+        <v>11.93635375453449</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.65097658581109</v>
+        <v>-1.481276539586734</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>41.64945510802762</v>
+        <v>21.20257753042709</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>45.11704824797894</v>
+        <v>37.30259337664096</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>45.25151699223547</v>
+        <v>24.93188651628683</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>52.25199515579225</v>
+        <v>44.69945593163585</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>55.32702077686369</v>
+        <v>54.58770136472928</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.4975962683478</v>
+        <v>5.321275259242935</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>49.62128151918542</v>
+        <v>20.71226052366397</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>54.77953642782001</v>
+        <v>33.28520717423599</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.27011493581592</v>
+        <v>60.15940502890433</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>37.09261213957098</v>
+        <v>50.94989533478633</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.73313888475732</v>
+        <v>66.29722974721138</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>46.8474335761171</v>
+        <v>72.67619952723143</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>23.94646134371879</v>
+        <v>19.15339597892672</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>41.34214541643991</v>
+        <v>59.9033433899374</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>46.51649901285388</v>
+        <v>66.32700557739057</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.27570089654279</v>
+        <v>20.60226465889289</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.75738210018979</v>
+        <v>42.39589680492018</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.5159194737663</v>
+        <v>51.26564994049048</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>22.93115911898767</v>
+        <v>5.672730806465093</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>37.59419783291072</v>
+        <v>35.84732282950809</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.79296532771837</v>
+        <v>44.11960377297042</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.80348412453829</v>
+        <v>13.62236722319596</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.8510049422362</v>
+        <v>57.65056861241105</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>46.31878304164695</v>
+        <v>69.88577363786227</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.42406369753736</v>
+        <v>73.30607559254243</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>53.44571568568678</v>
+        <v>85.15553451010213</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>56.52207502748078</v>
+        <v>91.71613517649736</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>32.60282314111971</v>
+        <v>30.3571558336594</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>50.80067822806585</v>
+        <v>76.54893606502337</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>55.95861323444056</v>
+        <v>83.43133445704548</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>37.5765314574155</v>
+        <v>61.49015928505111</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>37.39125334081196</v>
+        <v>42.44252397730901</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.03046894290507</v>
+        <v>55.16212861874772</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>47.14371271674141</v>
+        <v>67.55101696524645</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>24.24005423691788</v>
+        <v>8.485720421158032</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.63796531040996</v>
+        <v>52.01790477019888</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.80996703798995</v>
+        <v>62.35375780562948</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.55545510869828</v>
+        <v>13.61727736940898</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.03786963188458</v>
+        <v>36.7600172824588</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>42.79474726848859</v>
+        <v>49.88202786337969</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>23.23941779679171</v>
+        <v>2.054527943219266</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.90331493778795</v>
+        <v>32.79219578434923</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.10005529970964</v>
+        <v>45.89798031139959</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.1167454311838</v>
+        <v>10.93462461905875</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.16528748797705</v>
+        <v>56.59363312865226</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>46.63151599916559</v>
+        <v>73.2453012972219</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.72883502300218</v>
+        <v>70.06769783374197</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>53.74884491588404</v>
+        <v>80.47963725597721</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>56.82392821910557</v>
+        <v>92.47538067258337</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>32.90287022225193</v>
+        <v>19.52822231494498</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>51.10250269905953</v>
+        <v>71.99087330048276</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>56.25789230803723</v>
+        <v>83.19717564834123</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.80263305436028</v>
+        <v>55.60673433823945</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.63610257734779</v>
+        <v>28.16310237964832</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>43.27582935453545</v>
+        <v>40.17855001538915</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.39322615538508</v>
+        <v>54.99190408766459</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>23.49931915012263</v>
+        <v>6.969595372020787</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.88704218589028</v>
+        <v>43.81573970708689</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>46.06770771635272</v>
+        <v>57.75983009648569</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>24.85206323722394</v>
+        <v>11.32189076195018</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.32869328242499</v>
+        <v>34.06478717613697</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.09156818661994</v>
+        <v>50.98100461398117</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>22.47405170100645</v>
+        <v>2.52372223265429</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.13164685186512</v>
+        <v>29.37439549025573</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>41.33554619818879</v>
+        <v>45.57981236408058</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.33279532948775</v>
+        <v>6.003590291917629</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.37546937825547</v>
+        <v>49.70676943072282</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>45.84744291887016</v>
+        <v>70.33678398832846</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.96368120001596</v>
+        <v>57.2363897209397</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>52.98491326282983</v>
+        <v>70.74915735930902</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.06449012877199</v>
+        <v>88.19038193513755</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>32.15131546717514</v>
+        <v>14.64263585996001</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>50.341879752291</v>
+        <v>63.92692850849268</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>55.50621575787044</v>
+        <v>80.02692145891477</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>21.4291924062237</v>
+        <v>13.27583151252277</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>35.25916029037305</v>
+        <v>22.21034860065133</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>39.05859964155727</v>
+        <v>30.47374366315813</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.01774337946296</v>
+        <v>-0.4910904739495585</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.01265265341787</v>
+        <v>17.75047523207439</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>38.24289289894076</v>
+        <v>21.40401714982734</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.87223092034483</v>
+        <v>8.368023884204124</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>39.17483852171766</v>
+        <v>39.58417744404315</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.66515472093621</v>
+        <v>45.33256450238343</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>41.99437945816094</v>
+        <v>25.34416721048924</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>48.98051598724068</v>
+        <v>31.04790642638559</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>52.12681427872774</v>
+        <v>32.37129459786725</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>27.44014446795894</v>
+        <v>12.67585808098017</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>45.975573045615</v>
+        <v>20.12133218984691</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>51.20610537356565</v>
+        <v>32.5005515878583</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>23.29575845598387</v>
+        <v>14.58430977113089</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.25559505210743</v>
+        <v>24.82242238081933</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>41.17879567845527</v>
+        <v>26.24314122530259</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>20.5462012595524</v>
+        <v>-2.323022073222109</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.71077533131061</v>
+        <v>9.054429793383147</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>40.09180926885381</v>
+        <v>8.266470251187055</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.60904073390011</v>
+        <v>-4.6933511012769</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>41.06108045035286</v>
+        <v>23.81914465430993</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.46902520796962</v>
+        <v>16.53473316780748</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.35554016539422</v>
+        <v>37.74804910854576</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>40.15553725319353</v>
+        <v>40.1490053475799</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>20.15170762915021</v>
+        <v>5.999139634107191</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.20803078655399</v>
+        <v>38.3933318252185</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>39.43799412389473</v>
+        <v>39.2501979233803</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.06669488207925</v>
+        <v>13.66167574140374</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>40.42092966603929</v>
+        <v>59.11795954987511</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>43.91120467788396</v>
+        <v>58.99647786056272</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>43.20978278664491</v>
+        <v>59.5834892647192</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>50.21828929875113</v>
+        <v>64.93405767316622</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>53.36624848518699</v>
+        <v>65.202698559637</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.58306085381174</v>
+        <v>23.11509110677863</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>47.19649198696699</v>
+        <v>52.52195751909957</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>52.42645166347674</v>
+        <v>58.0506847855667</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>24.3408885205553</v>
+        <v>13.41092059870543</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.35780252001184</v>
+        <v>39.95311428056709</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>42.28201451387354</v>
+        <v>42.12161923125726</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>21.68443555508378</v>
+        <v>4.236450320853418</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.91106741365</v>
+        <v>34.08140297635555</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>41.29234818822876</v>
+        <v>36.53161131960825</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.80838874182162</v>
+        <v>6.325496927948532</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.31260758061673</v>
+        <v>53.77020481533363</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>22.75447892942674</v>
+        <v>9.835812922663234</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.64196380815783</v>
+        <v>30.69237336045086</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>40.44038972680055</v>
+        <v>35.65867843440769</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>20.46719168506594</v>
+        <v>4.623997471436976</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.52466261871795</v>
+        <v>35.94865286673623</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>39.75267716449746</v>
+        <v>39.4260389137074</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.38712803111356</v>
+        <v>12.08003040268456</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>40.74266292569519</v>
+        <v>57.32283383213392</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>44.23145744111523</v>
+        <v>60.04794091337436</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>43.52278045397387</v>
+        <v>62.26551691243409</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>50.52992602943299</v>
+        <v>65.87661068083955</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.67678639313017</v>
+        <v>69.53057540674922</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.89074957580862</v>
+        <v>12.37554044248962</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>47.5064289824858</v>
+        <v>43.64150765919665</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>52.73391615087129</v>
+        <v>51.226001493596</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>24.62604395227762</v>
+        <v>8.064489276585466</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>38.64389466705949</v>
+        <v>32.66124408999667</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>42.56657315498838</v>
+        <v>40.41796287239191</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>21.99955805045303</v>
+        <v>1.244894570865608</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.22729660522387</v>
+        <v>28.65523999118993</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>41.60665986361688</v>
+        <v>36.78809994732204</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.12841844244133</v>
+        <v>4.161171529684022</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.63389588197637</v>
+        <v>49.78044341826772</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>22.02768328387415</v>
+        <v>4.325503884434593</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.90853586120708</v>
+        <v>24.09973661024001</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>39.71301716676439</v>
+        <v>33.91678853009087</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>19.67526311574844</v>
+        <v>2.105045427680299</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.72542640586677</v>
+        <v>31.81311337587703</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>38.96072784246375</v>
+        <v>40.38961554104144</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.57604190308486</v>
+        <v>9.006897951195068</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.92479683814285</v>
+        <v>51.77642822360696</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>43.41944257063977</v>
+        <v>59.2159172351067</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.72875258520676</v>
+        <v>51.70372109375457</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>49.73638140691749</v>
+        <v>55.99357927436756</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>52.88758853585657</v>
+        <v>61.51805311081669</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.11181007889341</v>
+        <v>8.834352646301578</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.71697776333676</v>
+        <v>37.34420883571524</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>51.95360485798025</v>
+        <v>51.61643285096407</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>23.90005861755971</v>
+        <v>4.550620990505006</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.91125310366228</v>
+        <v>25.46651092001629</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>41.83993429217814</v>
+        <v>36.32287539819093</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>21.20846337445761</v>
+        <v>-0.3255351581666339</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.42888297476352</v>
+        <v>21.7654904829191</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>40.81549050821242</v>
+        <v>32.8991382907917</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.3182279163366</v>
+        <v>-0.5783886737753825</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>41.81692423526976</v>
+        <v>39.56063997764404</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>44.66973265184504</v>
+        <v>28.03211783844634</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>43.94115387238957</v>
+        <v>21.12370958881202</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>51.08277906685085</v>
+        <v>34.98427031851861</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>54.33526150509797</v>
+        <v>36.87667540357543</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.48550153760659</v>
+        <v>2.766178751732578</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>48.30121126297624</v>
+        <v>14.28532403755269</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>53.68127540891247</v>
+        <v>22.799449343843</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.84701717480949</v>
+        <v>11.95672836831517</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>45.40348031788055</v>
+        <v>19.04274151166724</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>49.32794221131161</v>
+        <v>31.05156516126361</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.59612220719414</v>
+        <v>-4.920702707085898</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>44.43015679492947</v>
+        <v>6.867704444064241</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>48.82115386858631</v>
+        <v>12.40743881097525</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>37.43245795002699</v>
+        <v>-4.625092793870625</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>50.44918164253505</v>
+        <v>24.45151163927708</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>54.06758981430725</v>
+        <v>40.45853616162775</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>53.63130610812872</v>
+        <v>25.28571999675169</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>61.17602776941997</v>
+        <v>41.35788718180179</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>64.4087728753093</v>
+        <v>51.3940591301773</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>38.47125576473505</v>
+        <v>0.3107259033446006</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>58.13828918000588</v>
+        <v>16.91515748942082</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>63.51872178105905</v>
+        <v>31.09963254129532</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>45.92163990983144</v>
+        <v>59.39912439195069</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>45.16056886188072</v>
+        <v>54.4862792451529</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>52.32487612000385</v>
+        <v>64.90510576618874</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>55.57941499268172</v>
+        <v>66.23618175652211</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>30.63313999736381</v>
+        <v>16.32781828764646</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>49.52779614710732</v>
+        <v>59.40427711973796</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>54.90789612257325</v>
+        <v>63.18999770762487</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>31.93006477919288</v>
+        <v>12.93647127105397</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>46.54413738847775</v>
+        <v>41.75270181715568</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>50.46918714285103</v>
+        <v>46.57082306489801</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.77472589261644</v>
+        <v>4.322621329271737</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>45.67130363088883</v>
+        <v>41.15389718046656</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>50.06217056472019</v>
+        <v>43.87835786592161</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.67432820804381</v>
+        <v>7.839627172214403</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>51.74363036793563</v>
+        <v>61.67896759353572</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>55.36214689027278</v>
+        <v>70.06118213749262</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>54.89429924740305</v>
+        <v>75.79814854728257</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>62.46171645123016</v>
+        <v>83.61664657540528</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>65.69589397042333</v>
+        <v>90.19043558744714</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>39.66184416413639</v>
+        <v>23.13944779167958</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>59.40842645603605</v>
+        <v>74.7017050889378</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>64.78841512834174</v>
+        <v>80.14534617849772</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>46.24148045829389</v>
+        <v>61.44868303160216</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>45.47255085292687</v>
+        <v>47.68539719794425</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>52.63541214824199</v>
+        <v>55.16225931816793</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>55.8888966970469</v>
+        <v>63.05034149832687</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.94009088718109</v>
+        <v>6.398845647955465</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>49.83690683141643</v>
+        <v>52.64790056086811</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>55.21459872966068</v>
+        <v>59.96282530975706</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>32.22197123645616</v>
+        <v>5.14450466616125</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.83666529628544</v>
+        <v>35.19338371477802</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>50.75999897100495</v>
+        <v>43.98257196469342</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.09693874412245</v>
+        <v>-0.0220435649439743</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.99424468990899</v>
+        <v>37.41533195836922</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>50.38300880088464</v>
+        <v>44.58110596537465</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>39.00142942454804</v>
+        <v>4.329746496071788</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>52.07166866563225</v>
+        <v>59.6314827969573</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>55.68858971254285</v>
+        <v>72.1628448370242</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>55.21270207634175</v>
+        <v>72.51812872867161</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>62.77831693924946</v>
+        <v>78.56743985040241</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>66.01118139904686</v>
+        <v>91.17967390089318</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>39.97556541552544</v>
+        <v>11.25844841520718</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>59.72381843223049</v>
+        <v>69.62528660386097</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>65.10117831694618</v>
+        <v>78.8435986088637</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>45.43031740450483</v>
+        <v>54.1139467620541</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>44.6804991703271</v>
+        <v>28.28131007161235</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>51.84398950846682</v>
+        <v>35.97144480468589</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>55.10176434471121</v>
+        <v>46.68178645495027</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.1627641837115</v>
+        <v>2.495496102086857</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>49.04910927816033</v>
+        <v>40.55410348005937</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>54.43583750362328</v>
+        <v>53.14428663346273</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.48476974646616</v>
+        <v>1.9649167541757</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>46.09358811819236</v>
+        <v>29.72511845140893</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>50.02322151974617</v>
+        <v>45.28544680502286</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.29400714322063</v>
+        <v>-0.8181775323118536</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.18493460056594</v>
+        <v>30.71868330523499</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>49.58123089302433</v>
+        <v>44.09306965411317</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>38.17951628384044</v>
+        <v>-1.01649405874284</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>51.24377370983982</v>
+        <v>50.24708220736635</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>54.86672040363737</v>
+        <v>69.83552575114608</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>54.41009212913062</v>
+        <v>56.87328730025409</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>61.97710121352863</v>
+        <v>66.68557327476732</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>65.21466033746955</v>
+        <v>85.12555209542295</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>39.18680889322589</v>
+        <v>5.853639743924116</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.92579944572614</v>
+        <v>59.48196191385266</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>64.31253214805336</v>
+        <v>76.05777892658834</v>
       </c>
     </row>
   </sheetData>
